--- a/future_years/test/test_assets/forecast_upload_test.xlsx
+++ b/future_years/test/test_assets/forecast_upload_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stronal/PycharmProjects/fft/future_years/test/test_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5730CCDC-1957-5A4B-BE54-11A88738F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7AA39-C4F0-1A48-9A5F-92A58A8276A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="-1040" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>109076</v>
+        <v>888812</v>
       </c>
       <c r="B2">
         <v>999999</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>109076</v>
+        <v>888812</v>
       </c>
       <c r="B3">
         <v>999999</v>
@@ -1142,18 +1142,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,6 +1366,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF255A-1CA2-4DE5-95FF-3D43C4BC1A95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F34B647-70B2-425E-B00E-F8374E364F8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1378,14 +1386,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF255A-1CA2-4DE5-95FF-3D43C4BC1A95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
